--- a/test/helper/pig_data/pig_ancestors.xlsx
+++ b/test/helper/pig_data/pig_ancestors.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27916"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="77" documentId="11_A036919BCEDCCEE3E979BAFA8980FCDE016F55DE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED179651-8BDA-4566-B738-ECB3EC456C4C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C8599EF-2D88-4771-A930-D6B653BCB1B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="122">
   <si>
     <t>序號</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -100,6 +100,9 @@
   <si>
     <t>欄1</t>
     <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生胎次</t>
   </si>
   <si>
     <t>D</t>
@@ -864,10 +867,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q101"/>
+  <dimension ref="A1:R101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -877,7 +880,7 @@
     <col min="16" max="16" width="15.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="7" customFormat="1" ht="16.5">
+    <row r="1" spans="1:18" s="7" customFormat="1" ht="16.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -929,16 +932,19 @@
       <c r="Q1" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="8">
         <v>43117</v>
@@ -947,44 +953,44 @@
         <v>394947</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" s="8">
         <v>44027</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" s="8">
         <v>44832</v>
@@ -993,21 +999,21 @@
         <v>220815</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5" s="8">
         <v>45248</v>
@@ -1016,21 +1022,21 @@
         <v>114463</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6" s="8">
         <v>43117</v>
@@ -1039,44 +1045,44 @@
         <v>571977</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E7" s="8">
         <v>44835</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E8" s="8">
         <v>43307</v>
@@ -1085,44 +1091,44 @@
         <v>907904</v>
       </c>
       <c r="I8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" s="8">
         <v>42892</v>
       </c>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E10" s="8">
         <v>44100</v>
@@ -1131,44 +1137,44 @@
         <v>175887</v>
       </c>
       <c r="I10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E11" s="8">
         <v>44774</v>
       </c>
       <c r="H11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E12" s="8">
         <v>43137</v>
@@ -1177,21 +1183,21 @@
         <v>763857</v>
       </c>
       <c r="I12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M12">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E13" s="8">
         <v>43295</v>
@@ -1200,21 +1206,21 @@
         <v>117135</v>
       </c>
       <c r="I13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M13">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E14" s="8">
         <v>42189</v>
@@ -1223,21 +1229,21 @@
         <v>168284</v>
       </c>
       <c r="I14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M14">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E15" s="8">
         <v>43362</v>
@@ -1246,30 +1252,30 @@
         <v>926512</v>
       </c>
       <c r="I15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M15">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E16" s="8">
         <v>45192</v>
       </c>
       <c r="H16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M16">
         <v>1</v>
@@ -1280,10 +1286,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E17" s="8">
         <v>42478</v>
@@ -1292,7 +1298,7 @@
         <v>622282</v>
       </c>
       <c r="I17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M17">
         <v>1</v>
@@ -1303,19 +1309,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E18" s="8">
         <v>42972</v>
       </c>
       <c r="H18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M18">
         <v>1</v>
@@ -1326,10 +1332,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E19" s="8">
         <v>42171</v>
@@ -1338,7 +1344,7 @@
         <v>546867</v>
       </c>
       <c r="I19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M19">
         <v>1</v>
@@ -1349,19 +1355,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E20" s="8">
         <v>43264</v>
       </c>
       <c r="H20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M20">
         <v>1</v>
@@ -1372,19 +1378,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E21" s="8">
         <v>45151</v>
       </c>
       <c r="H21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M21">
         <v>1</v>
@@ -1395,10 +1401,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E22" s="8">
         <v>44494</v>
@@ -1407,7 +1413,7 @@
         <v>695593</v>
       </c>
       <c r="I22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M22">
         <v>1</v>
@@ -1418,19 +1424,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E23" s="8">
         <v>44003</v>
       </c>
       <c r="H23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M23">
         <v>2</v>
@@ -1441,10 +1447,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E24" s="8">
         <v>45474</v>
@@ -1453,7 +1459,7 @@
         <v>886097</v>
       </c>
       <c r="I24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M24">
         <v>2</v>
@@ -1464,19 +1470,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E25" s="8">
         <v>43901</v>
       </c>
       <c r="H25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M25">
         <v>2</v>
@@ -1487,10 +1493,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E26" s="8">
         <v>44193</v>
@@ -1499,7 +1505,7 @@
         <v>630400</v>
       </c>
       <c r="I26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M26">
         <v>1</v>
@@ -1510,10 +1516,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E27" s="8">
         <v>42177</v>
@@ -1522,7 +1528,7 @@
         <v>590433</v>
       </c>
       <c r="I27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M27">
         <v>1</v>
@@ -1533,10 +1539,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E28" s="8">
         <v>43571</v>
@@ -1545,7 +1551,7 @@
         <v>686542</v>
       </c>
       <c r="I28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M28">
         <v>2</v>
@@ -1556,10 +1562,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E29" s="8">
         <v>44338</v>
@@ -1568,7 +1574,7 @@
         <v>246174</v>
       </c>
       <c r="I29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M29">
         <v>1</v>
@@ -1579,19 +1585,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E30" s="8">
         <v>42646</v>
       </c>
       <c r="H30" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M30">
         <v>1</v>
@@ -1602,19 +1608,19 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E31" s="8">
         <v>42378</v>
       </c>
       <c r="H31" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M31">
         <v>1</v>
@@ -1625,10 +1631,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C32" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E32" s="8">
         <v>43824</v>
@@ -1637,7 +1643,7 @@
         <v>348752</v>
       </c>
       <c r="I32" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M32">
         <v>1</v>
@@ -1648,10 +1654,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E33" s="8">
         <v>42152</v>
@@ -1660,7 +1666,7 @@
         <v>984299</v>
       </c>
       <c r="I33" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M33">
         <v>1</v>
@@ -1671,19 +1677,19 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E34" s="8">
         <v>44746</v>
       </c>
       <c r="H34" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I34" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M34">
         <v>1</v>
@@ -1694,10 +1700,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E35" s="8">
         <v>42497</v>
@@ -1706,7 +1712,7 @@
         <v>188631</v>
       </c>
       <c r="I35" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M35">
         <v>1</v>
@@ -1717,19 +1723,19 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E36" s="8">
         <v>45231</v>
       </c>
       <c r="H36" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I36" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M36">
         <v>2</v>
@@ -1740,10 +1746,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E37" s="8">
         <v>43655</v>
@@ -1752,7 +1758,7 @@
         <v>190895</v>
       </c>
       <c r="I37" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M37">
         <v>1</v>
@@ -1763,10 +1769,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E38" s="8">
         <v>43948</v>
@@ -1775,7 +1781,7 @@
         <v>262269</v>
       </c>
       <c r="I38" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M38">
         <v>2</v>
@@ -1786,19 +1792,19 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E39" s="8">
         <v>44920</v>
       </c>
       <c r="H39" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I39" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M39">
         <v>2</v>
@@ -1809,10 +1815,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E40" s="8">
         <v>44330</v>
@@ -1821,7 +1827,7 @@
         <v>849556</v>
       </c>
       <c r="I40" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M40">
         <v>2</v>
@@ -1832,10 +1838,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E41" s="8">
         <v>44250</v>
@@ -1844,7 +1850,7 @@
         <v>454447</v>
       </c>
       <c r="I41" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M41">
         <v>1</v>
@@ -1855,10 +1861,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C42" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E42" s="8">
         <v>42692</v>
@@ -1867,7 +1873,7 @@
         <v>822190</v>
       </c>
       <c r="I42" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M42">
         <v>1</v>
@@ -1878,10 +1884,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C43" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E43" s="8">
         <v>42243</v>
@@ -1890,7 +1896,7 @@
         <v>178181</v>
       </c>
       <c r="I43" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M43">
         <v>1</v>
@@ -1901,10 +1907,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C44" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E44" s="8">
         <v>42329</v>
@@ -1913,7 +1919,7 @@
         <v>706220</v>
       </c>
       <c r="I44" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M44">
         <v>1</v>
@@ -1924,19 +1930,19 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C45" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E45" s="8">
         <v>44768</v>
       </c>
       <c r="H45" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I45" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M45">
         <v>2</v>
@@ -1947,19 +1953,19 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C46" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E46" s="8">
         <v>42160</v>
       </c>
       <c r="H46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I46" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M46">
         <v>2</v>
@@ -1970,19 +1976,19 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C47" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E47" s="8">
         <v>42039</v>
       </c>
       <c r="H47" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I47" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M47">
         <v>2</v>
@@ -1993,19 +1999,19 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C48" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E48" s="8">
         <v>45629</v>
       </c>
       <c r="H48" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I48" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M48">
         <v>1</v>
@@ -2016,19 +2022,19 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C49" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E49" s="8">
         <v>44942</v>
       </c>
       <c r="H49" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I49" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M49">
         <v>2</v>
@@ -2039,19 +2045,19 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C50" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E50" s="8">
         <v>42437</v>
       </c>
       <c r="H50" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I50" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M50">
         <v>2</v>
@@ -2062,10 +2068,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C51" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E51" s="8">
         <v>42025</v>
@@ -2074,7 +2080,7 @@
         <v>859416</v>
       </c>
       <c r="I51" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M51">
         <v>1</v>
@@ -2085,19 +2091,19 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C52" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E52" s="8">
         <v>43233</v>
       </c>
       <c r="H52" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I52" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M52">
         <v>1</v>
@@ -2108,10 +2114,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C53" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E53" s="8">
         <v>43449</v>
@@ -2120,7 +2126,7 @@
         <v>456692</v>
       </c>
       <c r="I53" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M53">
         <v>2</v>
@@ -2131,10 +2137,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C54" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E54" s="8">
         <v>42558</v>
@@ -2143,7 +2149,7 @@
         <v>832744</v>
       </c>
       <c r="I54" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M54">
         <v>2</v>
@@ -2154,10 +2160,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C55" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E55" s="8">
         <v>43885</v>
@@ -2166,7 +2172,7 @@
         <v>519896</v>
       </c>
       <c r="I55" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M55">
         <v>2</v>
@@ -2177,19 +2183,19 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C56" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E56" s="8">
         <v>44828</v>
       </c>
       <c r="H56" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I56" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M56">
         <v>2</v>
@@ -2200,10 +2206,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C57" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E57" s="8">
         <v>43459</v>
@@ -2212,7 +2218,7 @@
         <v>123392</v>
       </c>
       <c r="I57" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M57">
         <v>2</v>
@@ -2223,19 +2229,19 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C58" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E58" s="8">
         <v>43078</v>
       </c>
       <c r="H58" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I58" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M58">
         <v>1</v>
@@ -2246,10 +2252,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C59" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E59" s="8">
         <v>44021</v>
@@ -2258,7 +2264,7 @@
         <v>395889</v>
       </c>
       <c r="I59" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M59">
         <v>2</v>
@@ -2269,19 +2275,19 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C60" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E60" s="8">
         <v>42914</v>
       </c>
       <c r="H60" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I60" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M60">
         <v>1</v>
@@ -2292,10 +2298,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C61" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E61" s="8">
         <v>42579</v>
@@ -2304,7 +2310,7 @@
         <v>380112</v>
       </c>
       <c r="I61" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M61">
         <v>1</v>
@@ -2315,10 +2321,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C62" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E62" s="8">
         <v>45571</v>
@@ -2327,7 +2333,7 @@
         <v>144303</v>
       </c>
       <c r="I62" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M62">
         <v>2</v>
@@ -2338,10 +2344,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C63" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E63" s="8">
         <v>43014</v>
@@ -2350,7 +2356,7 @@
         <v>202198</v>
       </c>
       <c r="I63" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M63">
         <v>2</v>
@@ -2361,10 +2367,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C64" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E64" s="8">
         <v>44054</v>
@@ -2373,7 +2379,7 @@
         <v>696875</v>
       </c>
       <c r="I64" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M64">
         <v>1</v>
@@ -2384,19 +2390,19 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C65" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E65" s="8">
         <v>42668</v>
       </c>
       <c r="H65" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I65" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M65">
         <v>1</v>
@@ -2407,10 +2413,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C66" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E66" s="8">
         <v>45582</v>
@@ -2419,7 +2425,7 @@
         <v>473939</v>
       </c>
       <c r="I66" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M66">
         <v>2</v>
@@ -2430,19 +2436,19 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C67" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E67" s="8">
         <v>44434</v>
       </c>
       <c r="H67" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I67" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M67">
         <v>2</v>
@@ -2453,10 +2459,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C68" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E68" s="8">
         <v>45108</v>
@@ -2465,7 +2471,7 @@
         <v>227045</v>
       </c>
       <c r="I68" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M68">
         <v>2</v>
@@ -2476,19 +2482,19 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C69" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E69" s="8">
         <v>43662</v>
       </c>
       <c r="H69" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I69" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M69">
         <v>2</v>
@@ -2499,19 +2505,19 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C70" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E70" s="8">
         <v>44929</v>
       </c>
       <c r="H70" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I70" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M70">
         <v>2</v>
@@ -2522,10 +2528,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C71" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E71" s="8">
         <v>44181</v>
@@ -2534,7 +2540,7 @@
         <v>486842</v>
       </c>
       <c r="I71" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M71">
         <v>2</v>
@@ -2545,10 +2551,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C72" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E72" s="8">
         <v>42875</v>
@@ -2557,7 +2563,7 @@
         <v>193926</v>
       </c>
       <c r="I72" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M72">
         <v>1</v>
@@ -2568,19 +2574,19 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C73" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E73" s="8">
         <v>44359</v>
       </c>
       <c r="H73" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I73" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M73">
         <v>1</v>
@@ -2591,10 +2597,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C74" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E74" s="8">
         <v>42243</v>
@@ -2603,7 +2609,7 @@
         <v>425614</v>
       </c>
       <c r="I74" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M74">
         <v>1</v>
@@ -2614,19 +2620,19 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C75" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E75" s="8">
         <v>44290</v>
       </c>
       <c r="H75" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I75" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M75">
         <v>2</v>
@@ -2637,19 +2643,19 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C76" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E76" s="8">
         <v>42668</v>
       </c>
       <c r="H76" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I76" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M76">
         <v>2</v>
@@ -2660,10 +2666,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C77" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E77" s="8">
         <v>43103</v>
@@ -2672,7 +2678,7 @@
         <v>872026</v>
       </c>
       <c r="I77" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M77">
         <v>2</v>
@@ -2683,10 +2689,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C78" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E78" s="8">
         <v>44685</v>
@@ -2695,7 +2701,7 @@
         <v>747829</v>
       </c>
       <c r="I78" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M78">
         <v>2</v>
@@ -2706,19 +2712,19 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C79" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E79" s="8">
         <v>45307</v>
       </c>
       <c r="H79" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I79" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M79">
         <v>1</v>
@@ -2729,10 +2735,10 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C80" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E80" s="8">
         <v>44068</v>
@@ -2741,7 +2747,7 @@
         <v>977245</v>
       </c>
       <c r="I80" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M80">
         <v>1</v>
@@ -2752,10 +2758,10 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C81" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E81" s="8">
         <v>44309</v>
@@ -2764,7 +2770,7 @@
         <v>216083</v>
       </c>
       <c r="I81" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M81">
         <v>1</v>
@@ -2775,10 +2781,10 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C82" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E82" s="8">
         <v>42555</v>
@@ -2787,7 +2793,7 @@
         <v>560542</v>
       </c>
       <c r="I82" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M82">
         <v>2</v>
@@ -2798,19 +2804,19 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C83" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E83" s="8">
         <v>43412</v>
       </c>
       <c r="H83" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I83" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M83">
         <v>1</v>
@@ -2821,10 +2827,10 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C84" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E84" s="8">
         <v>43541</v>
@@ -2833,7 +2839,7 @@
         <v>383030</v>
       </c>
       <c r="I84" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M84">
         <v>1</v>
@@ -2844,19 +2850,19 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C85" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E85" s="8">
         <v>42989</v>
       </c>
       <c r="H85" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I85" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M85">
         <v>1</v>
@@ -2867,19 +2873,19 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C86" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E86" s="8">
         <v>43436</v>
       </c>
       <c r="H86" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I86" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M86">
         <v>1</v>
@@ -2890,10 +2896,10 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C87" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E87" s="8">
         <v>44391</v>
@@ -2902,7 +2908,7 @@
         <v>439917</v>
       </c>
       <c r="I87" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M87">
         <v>1</v>
@@ -2913,10 +2919,10 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C88" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E88" s="8">
         <v>43655</v>
@@ -2925,7 +2931,7 @@
         <v>732577</v>
       </c>
       <c r="I88" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M88">
         <v>2</v>
@@ -2936,19 +2942,19 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C89" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E89" s="8">
         <v>42202</v>
       </c>
       <c r="H89" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I89" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M89">
         <v>2</v>
@@ -2959,10 +2965,10 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C90" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E90" s="8">
         <v>42849</v>
@@ -2971,7 +2977,7 @@
         <v>271438</v>
       </c>
       <c r="I90" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M90">
         <v>2</v>
@@ -2982,10 +2988,10 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C91" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E91" s="8">
         <v>45176</v>
@@ -2994,7 +3000,7 @@
         <v>748742</v>
       </c>
       <c r="I91" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M91">
         <v>1</v>
@@ -3005,10 +3011,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C92" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E92" s="8">
         <v>44156</v>
@@ -3017,7 +3023,7 @@
         <v>362680</v>
       </c>
       <c r="I92" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M92">
         <v>2</v>
@@ -3028,19 +3034,19 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C93" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E93" s="8">
         <v>43319</v>
       </c>
       <c r="H93" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I93" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M93">
         <v>2</v>
@@ -3051,10 +3057,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C94" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E94" s="8">
         <v>42743</v>
@@ -3063,7 +3069,7 @@
         <v>499445</v>
       </c>
       <c r="I94" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M94">
         <v>2</v>
@@ -3074,10 +3080,10 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C95" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E95" s="8">
         <v>44938</v>
@@ -3086,7 +3092,7 @@
         <v>355767</v>
       </c>
       <c r="I95" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M95">
         <v>2</v>
@@ -3097,19 +3103,19 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C96" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E96" s="8">
         <v>42849</v>
       </c>
       <c r="H96" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I96" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M96">
         <v>1</v>
@@ -3120,19 +3126,19 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C97" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E97" s="8">
         <v>44106</v>
       </c>
       <c r="H97" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I97" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M97">
         <v>2</v>
@@ -3143,19 +3149,19 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C98" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E98" s="8">
         <v>43267</v>
       </c>
       <c r="H98" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I98" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M98">
         <v>1</v>
@@ -3166,10 +3172,10 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C99" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E99" s="8">
         <v>44364</v>
@@ -3178,7 +3184,7 @@
         <v>367015</v>
       </c>
       <c r="I99" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M99">
         <v>1</v>
@@ -3189,19 +3195,19 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C100" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E100" s="8">
         <v>42936</v>
       </c>
       <c r="H100" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I100" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M100">
         <v>1</v>
@@ -3212,10 +3218,10 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C101" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E101" s="8">
         <v>42784</v>
@@ -3224,7 +3230,7 @@
         <v>820971</v>
       </c>
       <c r="I101" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M101">
         <v>2</v>
@@ -3247,17 +3253,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
